--- a/11_mar_to_5_apr_bill/11_mar_to_5_apr.xlsx
+++ b/11_mar_to_5_apr_bill/11_mar_to_5_apr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F297"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3849,7 +3849,7 @@
         <v>19</v>
       </c>
       <c r="D237" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E237">
         <v>455</v>
@@ -4724,7 +4724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
